--- a/py36_practise/短信/duanxin.xlsx
+++ b/py36_practise/短信/duanxin.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,19 +20,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15168557200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试5</t>
   </si>
   <si>
     <t>测试3</t>
-  </si>
-  <si>
-    <t>测试4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -74,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -359,7 +371,59 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>15168557211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>15168557200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>15168557211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -369,34 +433,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>15168557200</v>
+        <v>14111111111</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>15867557512</v>
+        <v>11223333333</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>18267432205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>15990572628</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
